--- a/docss/trend/germany/E_huntington.xlsx
+++ b/docss/trend/germany/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,224 +1581,224 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.20391289459075779</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.23141132015734911</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.18370312824845314</v>
+      <c r="B2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.1742743527283892</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.14364197698887438</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.20578732551075518</v>
+      <c r="B3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.17790373461320996</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.15593832335434854</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.20078392350114882</v>
+      <c r="B4">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.156</v>
+      </c>
+      <c r="D4">
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.1920776900369674</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.20530417677946389</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.17999200348276645</v>
+      <c r="B5">
+        <v>0.192</v>
+      </c>
+      <c r="C5">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.21444838040042669</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.22181090584490448</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.20456364727579057</v>
+      <c r="B6">
+        <v>0.214</v>
+      </c>
+      <c r="C6">
+        <v>0.222</v>
+      </c>
+      <c r="D6">
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.20050009293481708</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.19390793237835169</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.20140610751695931</v>
+      <c r="B7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.17296054097823799</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.18032661685720086</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.16748175583779812</v>
+      <c r="B8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.18</v>
+      </c>
+      <c r="D8">
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.19192362995818257</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.19106214877683669</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.18982334400061518</v>
+      <c r="B9">
+        <v>0.192</v>
+      </c>
+      <c r="C9">
+        <v>0.191</v>
+      </c>
+      <c r="D9">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.21174621116369963</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.21754818595945835</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.20354833523742855</v>
+      <c r="B10">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.218</v>
+      </c>
+      <c r="D10">
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.23600312822964042</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.22460172045975924</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.24581291992217302</v>
+      <c r="B11">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.246</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.24736012285575271</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.28952194843441248</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.20759211480617523</v>
+      <c r="B12">
+        <v>0.247</v>
+      </c>
+      <c r="C12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.26315659785177559</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.29480072832666337</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.23244103183969855</v>
+      <c r="B13">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.26922259572893381</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.28697154624387622</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.25393705442547798</v>
+      <c r="B14">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.254</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.26489673019386828</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.26275916304439306</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.26570853497833014</v>
+      <c r="B15">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.30231698974967003</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.33567979652434587</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.2697724939789623</v>
+      <c r="B16">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.27757300750818104</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.27355501963756979</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.27784249605610967</v>
+      <c r="B17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.27800000000000002</v>
       </c>
     </row>
   </sheetData>
